--- a/programs/react/reactassignment.xlsx
+++ b/programs/react/reactassignment.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2023\ISE\oct2023\workshop\programs\react\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0400FDA2-92FC-4084-9797-6BB49C18E11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE98C077-EB53-4AC6-8833-6A3E1ACD64BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ProductMaster" sheetId="2" r:id="rId1"/>
-    <sheet name="Counter" sheetId="1" r:id="rId2"/>
+    <sheet name="AsianGames" sheetId="3" r:id="rId1"/>
+    <sheet name="ProductMaster" sheetId="2" r:id="rId2"/>
+    <sheet name="Counter" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Counter</t>
   </si>
@@ -83,6 +84,45 @@
   </si>
   <si>
     <t>List Product</t>
+  </si>
+  <si>
+    <t>Asian Games</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>&lt;Add Medals&gt;</t>
+  </si>
+  <si>
+    <t>List Medals</t>
+  </si>
+  <si>
+    <t>Search By Country</t>
+  </si>
+  <si>
+    <t>&lt;China&gt;</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>Reset</t>
   </si>
 </sst>
 </file>
@@ -440,10 +480,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6957754-30D2-4A3D-A21E-F338C1A6185B}">
+  <dimension ref="C2:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15417F75-70F0-4999-83DF-D9055D791004}">
   <dimension ref="C2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
+    <sheetView zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -563,7 +770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:D8"/>
   <sheetViews>

--- a/programs/react/reactassignment.xlsx
+++ b/programs/react/reactassignment.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2023\ISE\oct2023\workshop\programs\react\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE98C077-EB53-4AC6-8833-6A3E1ACD64BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8AD650-3F8A-47A4-8ADD-13D0D672B56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AsianGames" sheetId="3" r:id="rId1"/>
-    <sheet name="ProductMaster" sheetId="2" r:id="rId2"/>
-    <sheet name="Counter" sheetId="1" r:id="rId3"/>
+    <sheet name="Counter" sheetId="1" r:id="rId1"/>
+    <sheet name="AsianGames" sheetId="3" r:id="rId2"/>
+    <sheet name="ProductMaster" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -480,10 +480,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C4:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6957754-30D2-4A3D-A21E-F338C1A6185B}">
   <dimension ref="C2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
+    <sheetView topLeftCell="C11" zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -646,7 +682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15417F75-70F0-4999-83DF-D9055D791004}">
   <dimension ref="C2:H12"/>
   <sheetViews>
@@ -768,40 +804,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:D8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>